--- a/Output/sugarcane_year_result.xlsx
+++ b/Output/sugarcane_year_result.xlsx
@@ -48,7 +48,7 @@
     <t>(.2117109)</t>
   </si>
   <si>
-    <t>1950 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1950 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">16015.64   </t>
@@ -69,7 +69,7 @@
     <t>(24353.47)</t>
   </si>
   <si>
-    <t>1951 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1951 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t>22753.27***</t>
@@ -84,7 +84,7 @@
     <t>(6252.297)</t>
   </si>
   <si>
-    <t>1954 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1954 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">-22271.59*  </t>
@@ -105,7 +105,7 @@
     <t>(14402.16)</t>
   </si>
   <si>
-    <t>1955 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1955 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">-46275.41** </t>
@@ -126,7 +126,7 @@
     <t>(28657.27)</t>
   </si>
   <si>
-    <t>1956 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1956 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">-3570.443   </t>
